--- a/Resources/DataLists/PathListReduced.xlsx
+++ b/Resources/DataLists/PathListReduced.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Python Main\PycharmProjects\PMV_Generator_Git\Resources\DataLists\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1871AE8-28B8-4555-9853-A31A5E171F25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BB62F93-E783-4294-8092-C6CC207A7F2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="2295" yWindow="2295" windowWidth="21600" windowHeight="11385" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7200" yWindow="1530" windowWidth="21600" windowHeight="11385" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>PathName</t>
   </si>
@@ -144,6 +144,12 @@
   </si>
   <si>
     <t>Resources/TempMusicVid/</t>
+  </si>
+  <si>
+    <t>ArtistListPath</t>
+  </si>
+  <si>
+    <t>Resources/DataLists/ArtistList.csv</t>
   </si>
 </sst>
 </file>
@@ -517,10 +523,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -647,6 +653,14 @@
       </c>
       <c r="B15" s="2" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/Resources/DataLists/PathListReduced.xlsx
+++ b/Resources/DataLists/PathListReduced.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Python Main\PycharmProjects\PMV_Generator_Git\Resources\DataLists\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BB62F93-E783-4294-8092-C6CC207A7F2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E86F1847-6456-49BE-8017-39368B9DD711}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="1530" windowWidth="21600" windowHeight="11385" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="345" yWindow="4215" windowWidth="21600" windowHeight="11385" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0">Sheet1!$A$1:$B$9</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0">Sheet1!$A$1:$B$10</definedName>
   </definedNames>
   <calcPr calcId="0"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>PathName</t>
   </si>
@@ -150,6 +150,24 @@
   </si>
   <si>
     <t>Resources/DataLists/ArtistList.csv</t>
+  </si>
+  <si>
+    <t>DataListOutPath</t>
+  </si>
+  <si>
+    <t>Resources/DataLists/PornLists/</t>
+  </si>
+  <si>
+    <t>MusicListOutPath</t>
+  </si>
+  <si>
+    <t>Resources/DataLists/MusicLists/</t>
+  </si>
+  <si>
+    <t>cockHeroPath</t>
+  </si>
+  <si>
+    <t>Cock_Hero_Fns/</t>
   </si>
 </sst>
 </file>
@@ -523,10 +541,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -544,129 +562,153 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>25</v>
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>23</v>
+      <c r="A15" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B12" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B18">
-      <sortCondition ref="A1:A12"/>
+  <autoFilter ref="A1:B13" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B19">
+      <sortCondition ref="A1:A13"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
